--- a/xlsxFiles/common.xlsx
+++ b/xlsxFiles/common.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -650,9 +650,25 @@
         <v>Notifications</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>cashew</v>
+      </c>
+      <c r="B32" t="str">
+        <v>cashew</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>by</v>
+      </c>
+      <c r="B33" t="str">
+        <v>by</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B33"/>
   </ignoredErrors>
 </worksheet>
 </file>